--- a/INTLINE/data/134/DEUSTATIS/New orders (value and volume index) in the main construction industry - 1991.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/New orders (value and volume index) in the main construction industry - 1991.xlsx
@@ -175,7 +175,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:35:40</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:13:46</t>
   </si>
 </sst>
 </file>
@@ -32201,37 +32201,37 @@
         <v>102.4</v>
       </c>
       <c r="DH79" t="n" s="10">
-        <v>103.3</v>
+        <v>103.4</v>
       </c>
       <c r="DI79" t="n" s="10">
-        <v>102.6</v>
+        <v>102.5</v>
       </c>
       <c r="DJ79" t="n" s="10">
-        <v>105.2</v>
+        <v>105.0</v>
       </c>
       <c r="DK79" t="n" s="10">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="DL79" t="n" s="10">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="DM79" t="n" s="10">
         <v>95.5</v>
       </c>
       <c r="DN79" t="n" s="10">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="DO79" t="n" s="10">
         <v>95.3</v>
       </c>
       <c r="DP79" t="n" s="10">
-        <v>100.0</v>
+        <v>99.9</v>
       </c>
       <c r="DQ79" t="n" s="10">
-        <v>98.3</v>
+        <v>98.4</v>
       </c>
       <c r="DR79" t="n" s="10">
-        <v>96.3</v>
+        <v>96.4</v>
       </c>
       <c r="DS79" t="n" s="10">
         <v>99.9</v>
@@ -32240,28 +32240,28 @@
         <v>96.9</v>
       </c>
       <c r="DU79" t="n" s="10">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="DV79" t="n" s="10">
         <v>91.4</v>
       </c>
       <c r="DW79" t="n" s="10">
-        <v>95.5</v>
+        <v>95.6</v>
       </c>
       <c r="DX79" t="n" s="10">
-        <v>98.5</v>
+        <v>98.4</v>
       </c>
       <c r="DY79" t="n" s="10">
-        <v>99.1</v>
+        <v>99.2</v>
       </c>
       <c r="DZ79" t="n" s="10">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="EA79" t="n" s="10">
         <v>97.0</v>
       </c>
       <c r="EB79" t="n" s="10">
-        <v>91.6</v>
+        <v>91.8</v>
       </c>
       <c r="EC79" t="n" s="10">
         <v>93.0</v>
@@ -32270,7 +32270,7 @@
         <v>92.7</v>
       </c>
       <c r="EE79" t="n" s="10">
-        <v>88.8</v>
+        <v>88.9</v>
       </c>
     </row>
     <row r="80">
@@ -32611,7 +32611,7 @@
         <v>128.1</v>
       </c>
       <c r="DJ80" t="n" s="10">
-        <v>135.6</v>
+        <v>135.7</v>
       </c>
       <c r="DK80" t="n" s="10">
         <v>126.0</v>
@@ -32656,7 +32656,7 @@
         <v>123.7</v>
       </c>
       <c r="DY80" t="n" s="10">
-        <v>124.5</v>
+        <v>124.4</v>
       </c>
       <c r="DZ80" t="n" s="10">
         <v>117.8</v>
@@ -33051,7 +33051,7 @@
         <v>106.0</v>
       </c>
       <c r="DU81" t="n" s="10">
-        <v>99.6</v>
+        <v>99.5</v>
       </c>
       <c r="DV81" t="n" s="10">
         <v>94.9</v>
@@ -33434,7 +33434,7 @@
         <v>128.1</v>
       </c>
       <c r="DN82" t="n" s="10">
-        <v>134.9</v>
+        <v>134.8</v>
       </c>
       <c r="DO82" t="n" s="10">
         <v>125.9</v>
@@ -33473,7 +33473,7 @@
         <v>122.4</v>
       </c>
       <c r="EA82" t="n" s="10">
-        <v>125.9</v>
+        <v>126.0</v>
       </c>
       <c r="EB82" t="n" s="10">
         <v>119.3</v>
@@ -33482,7 +33482,7 @@
         <v>121.6</v>
       </c>
       <c r="ED82" t="n" s="10">
-        <v>118.6</v>
+        <v>118.7</v>
       </c>
       <c r="EE82" t="n" s="10">
         <v>110.2</v>
@@ -33823,25 +33823,25 @@
         <v>114.5</v>
       </c>
       <c r="DH83" t="n" s="10">
-        <v>108.8</v>
+        <v>108.7</v>
       </c>
       <c r="DI83" t="n" s="10">
-        <v>107.2</v>
+        <v>107.3</v>
       </c>
       <c r="DJ83" t="n" s="10">
-        <v>114.9</v>
+        <v>115.0</v>
       </c>
       <c r="DK83" t="n" s="10">
-        <v>108.7</v>
+        <v>108.6</v>
       </c>
       <c r="DL83" t="n" s="10">
-        <v>102.9</v>
+        <v>103.0</v>
       </c>
       <c r="DM83" t="n" s="10">
         <v>99.5</v>
       </c>
       <c r="DN83" t="n" s="10">
-        <v>105.8</v>
+        <v>105.7</v>
       </c>
       <c r="DO83" t="n" s="10">
         <v>100.3</v>
@@ -33850,7 +33850,7 @@
         <v>96.5</v>
       </c>
       <c r="DQ83" t="n" s="10">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="DR83" t="n" s="10">
         <v>95.2</v>
@@ -33862,19 +33862,19 @@
         <v>92.2</v>
       </c>
       <c r="DU83" t="n" s="10">
-        <v>90.1</v>
+        <v>90.0</v>
       </c>
       <c r="DV83" t="n" s="10">
         <v>88.2</v>
       </c>
       <c r="DW83" t="n" s="10">
-        <v>86.2</v>
+        <v>86.1</v>
       </c>
       <c r="DX83" t="n" s="10">
-        <v>88.9</v>
+        <v>89.0</v>
       </c>
       <c r="DY83" t="n" s="10">
-        <v>91.8</v>
+        <v>91.7</v>
       </c>
       <c r="DZ83" t="n" s="10">
         <v>83.2</v>
@@ -33883,7 +33883,7 @@
         <v>83.0</v>
       </c>
       <c r="EB83" t="n" s="10">
-        <v>83.5</v>
+        <v>83.4</v>
       </c>
       <c r="EC83" t="n" s="10">
         <v>81.0</v>
@@ -34227,76 +34227,76 @@
         <v>140.4</v>
       </c>
       <c r="DH84" t="n" s="10">
-        <v>132.9</v>
+        <v>131.2</v>
       </c>
       <c r="DI84" t="n" s="10">
+        <v>129.7</v>
+      </c>
+      <c r="DJ84" t="n" s="10">
+        <v>145.6</v>
+      </c>
+      <c r="DK84" t="n" s="10">
         <v>131.2</v>
       </c>
-      <c r="DJ84" t="n" s="10">
-        <v>140.6</v>
-      </c>
-      <c r="DK84" t="n" s="10">
-        <v>132.6</v>
-      </c>
       <c r="DL84" t="n" s="10">
-        <v>126.0</v>
+        <v>124.7</v>
       </c>
       <c r="DM84" t="n" s="10">
-        <v>121.6</v>
+        <v>127.1</v>
       </c>
       <c r="DN84" t="n" s="10">
-        <v>129.3</v>
+        <v>128.3</v>
       </c>
       <c r="DO84" t="n" s="10">
-        <v>123.1</v>
+        <v>122.3</v>
       </c>
       <c r="DP84" t="n" s="10">
-        <v>118.4</v>
+        <v>117.7</v>
       </c>
       <c r="DQ84" t="n" s="10">
-        <v>118.1</v>
+        <v>117.4</v>
       </c>
       <c r="DR84" t="n" s="10">
-        <v>117.0</v>
+        <v>116.5</v>
       </c>
       <c r="DS84" t="n" s="10">
-        <v>114.9</v>
+        <v>114.5</v>
       </c>
       <c r="DT84" t="n" s="10">
-        <v>113.6</v>
+        <v>112.7</v>
       </c>
       <c r="DU84" t="n" s="10">
+        <v>110.1</v>
+      </c>
+      <c r="DV84" t="n" s="10">
         <v>110.9</v>
       </c>
-      <c r="DV84" t="n" s="10">
+      <c r="DW84" t="n" s="10">
+        <v>105.3</v>
+      </c>
+      <c r="DX84" t="n" s="10">
         <v>108.9</v>
       </c>
-      <c r="DW84" t="n" s="10">
-        <v>106.2</v>
-      </c>
-      <c r="DX84" t="n" s="10">
-        <v>109.9</v>
-      </c>
       <c r="DY84" t="n" s="10">
-        <v>113.2</v>
+        <v>118.9</v>
       </c>
       <c r="DZ84" t="n" s="10">
-        <v>102.9</v>
+        <v>102.1</v>
       </c>
       <c r="EA84" t="n" s="10">
-        <v>102.7</v>
+        <v>101.9</v>
       </c>
       <c r="EB84" t="n" s="10">
-        <v>103.2</v>
+        <v>102.5</v>
       </c>
       <c r="EC84" t="n" s="10">
-        <v>100.3</v>
+        <v>99.8</v>
       </c>
       <c r="ED84" t="n" s="10">
-        <v>92.5</v>
+        <v>92.1</v>
       </c>
       <c r="EE84" t="n" s="10">
-        <v>91.0</v>
+        <v>90.5</v>
       </c>
     </row>
     <row r="85">
@@ -34634,7 +34634,7 @@
         <v>104.4</v>
       </c>
       <c r="DH85" t="n" s="10">
-        <v>112.0</v>
+        <v>111.9</v>
       </c>
       <c r="DI85" t="n" s="10">
         <v>114.1</v>
@@ -34643,10 +34643,10 @@
         <v>116.7</v>
       </c>
       <c r="DK85" t="n" s="10">
-        <v>109.8</v>
+        <v>109.7</v>
       </c>
       <c r="DL85" t="n" s="10">
-        <v>115.7</v>
+        <v>115.8</v>
       </c>
       <c r="DM85" t="n" s="10">
         <v>106.4</v>
@@ -34658,7 +34658,7 @@
         <v>102.3</v>
       </c>
       <c r="DP85" t="n" s="10">
-        <v>115.1</v>
+        <v>115.2</v>
       </c>
       <c r="DQ85" t="n" s="10">
         <v>109.6</v>
@@ -34667,7 +34667,7 @@
         <v>107.7</v>
       </c>
       <c r="DS85" t="n" s="10">
-        <v>114.8</v>
+        <v>114.9</v>
       </c>
       <c r="DT85" t="n" s="10">
         <v>114.6</v>
@@ -34679,10 +34679,10 @@
         <v>110.0</v>
       </c>
       <c r="DW85" t="n" s="10">
-        <v>113.4</v>
+        <v>113.3</v>
       </c>
       <c r="DX85" t="n" s="10">
-        <v>111.1</v>
+        <v>111.2</v>
       </c>
       <c r="DY85" t="n" s="10">
         <v>113.0</v>
@@ -34697,13 +34697,13 @@
         <v>103.5</v>
       </c>
       <c r="EC85" t="n" s="10">
-        <v>107.8</v>
+        <v>107.9</v>
       </c>
       <c r="ED85" t="n" s="10">
-        <v>108.0</v>
+        <v>108.1</v>
       </c>
       <c r="EE85" t="n" s="10">
-        <v>97.9</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="86">
@@ -35041,13 +35041,13 @@
         <v>139.6</v>
       </c>
       <c r="DI86" t="n" s="10">
-        <v>142.7</v>
+        <v>142.8</v>
       </c>
       <c r="DJ86" t="n" s="10">
         <v>145.8</v>
       </c>
       <c r="DK86" t="n" s="10">
-        <v>136.7</v>
+        <v>136.6</v>
       </c>
       <c r="DL86" t="n" s="10">
         <v>144.8</v>
@@ -35074,7 +35074,7 @@
         <v>144.1</v>
       </c>
       <c r="DT86" t="n" s="10">
-        <v>143.8</v>
+        <v>143.9</v>
       </c>
       <c r="DU86" t="n" s="10">
         <v>131.7</v>
@@ -35095,7 +35095,7 @@
         <v>135.8</v>
       </c>
       <c r="EA86" t="n" s="10">
-        <v>142.0</v>
+        <v>142.1</v>
       </c>
       <c r="EB86" t="n" s="10">
         <v>130.4</v>
@@ -35457,19 +35457,19 @@
         <v>107.0</v>
       </c>
       <c r="DL87" t="n" s="10">
-        <v>116.5</v>
+        <v>116.6</v>
       </c>
       <c r="DM87" t="n" s="10">
         <v>111.5</v>
       </c>
       <c r="DN87" t="n" s="10">
-        <v>112.2</v>
+        <v>112.1</v>
       </c>
       <c r="DO87" t="n" s="10">
         <v>100.7</v>
       </c>
       <c r="DP87" t="n" s="10">
-        <v>116.5</v>
+        <v>116.6</v>
       </c>
       <c r="DQ87" t="n" s="10">
         <v>113.9</v>
@@ -35484,7 +35484,7 @@
         <v>117.3</v>
       </c>
       <c r="DU87" t="n" s="10">
-        <v>105.1</v>
+        <v>105.0</v>
       </c>
       <c r="DV87" t="n" s="10">
         <v>110.6</v>
@@ -35505,7 +35505,7 @@
         <v>116.0</v>
       </c>
       <c r="EB87" t="n" s="10">
-        <v>104.0</v>
+        <v>103.9</v>
       </c>
       <c r="EC87" t="n" s="10">
         <v>103.8</v>
@@ -36289,7 +36289,7 @@
         <v>99.5</v>
       </c>
       <c r="DS89" t="n" s="10">
-        <v>147.2</v>
+        <v>147.1</v>
       </c>
       <c r="DT89" t="n" s="10">
         <v>99.7</v>
@@ -37067,10 +37067,10 @@
         <v>95.3</v>
       </c>
       <c r="DH91" t="n" s="10">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="DI91" t="n" s="10">
-        <v>92.1</v>
+        <v>92.0</v>
       </c>
       <c r="DJ91" t="n" s="10">
         <v>94.8</v>
@@ -37085,10 +37085,10 @@
         <v>86.1</v>
       </c>
       <c r="DN91" t="n" s="10">
-        <v>91.5</v>
+        <v>91.6</v>
       </c>
       <c r="DO91" t="n" s="10">
-        <v>87.6</v>
+        <v>87.7</v>
       </c>
       <c r="DP91" t="n" s="10">
         <v>90.4</v>
@@ -37100,7 +37100,7 @@
         <v>88.3</v>
       </c>
       <c r="DS91" t="n" s="10">
-        <v>91.7</v>
+        <v>91.6</v>
       </c>
       <c r="DT91" t="n" s="10">
         <v>86.2</v>
@@ -37127,7 +37127,7 @@
         <v>92.1</v>
       </c>
       <c r="EB91" t="n" s="10">
-        <v>86.9</v>
+        <v>87.0</v>
       </c>
       <c r="EC91" t="n" s="10">
         <v>87.5</v>
@@ -37878,7 +37878,7 @@
         <v>86.8</v>
       </c>
       <c r="DH93" t="n" s="10">
-        <v>90.8</v>
+        <v>90.7</v>
       </c>
       <c r="DI93" t="n" s="10">
         <v>87.3</v>
@@ -37890,13 +37890,13 @@
         <v>85.9</v>
       </c>
       <c r="DL93" t="n" s="10">
-        <v>79.6</v>
+        <v>79.7</v>
       </c>
       <c r="DM93" t="n" s="10">
         <v>81.9</v>
       </c>
       <c r="DN93" t="n" s="10">
-        <v>87.5</v>
+        <v>87.4</v>
       </c>
       <c r="DO93" t="n" s="10">
         <v>81.4</v>
@@ -37920,7 +37920,7 @@
         <v>81.4</v>
       </c>
       <c r="DV93" t="n" s="10">
-        <v>84.4</v>
+        <v>84.5</v>
       </c>
       <c r="DW93" t="n" s="10">
         <v>86.0</v>
@@ -37929,7 +37929,7 @@
         <v>89.5</v>
       </c>
       <c r="DY93" t="n" s="10">
-        <v>87.2</v>
+        <v>87.1</v>
       </c>
       <c r="DZ93" t="n" s="10">
         <v>84.6</v>
@@ -37941,13 +37941,13 @@
         <v>84.6</v>
       </c>
       <c r="EC93" t="n" s="10">
-        <v>86.3</v>
+        <v>86.4</v>
       </c>
       <c r="ED93" t="n" s="10">
         <v>82.6</v>
       </c>
       <c r="EE93" t="n" s="10">
-        <v>83.6</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="94">
@@ -38695,13 +38695,13 @@
         <v>94.8</v>
       </c>
       <c r="DJ95" t="n" s="10">
-        <v>97.3</v>
+        <v>97.4</v>
       </c>
       <c r="DK95" t="n" s="10">
-        <v>95.6</v>
+        <v>95.5</v>
       </c>
       <c r="DL95" t="n" s="10">
-        <v>92.5</v>
+        <v>92.6</v>
       </c>
       <c r="DM95" t="n" s="10">
         <v>88.6</v>
@@ -38716,13 +38716,13 @@
         <v>93.4</v>
       </c>
       <c r="DQ95" t="n" s="10">
-        <v>96.2</v>
+        <v>96.1</v>
       </c>
       <c r="DR95" t="n" s="10">
         <v>90.4</v>
       </c>
       <c r="DS95" t="n" s="10">
-        <v>92.8</v>
+        <v>92.9</v>
       </c>
       <c r="DT95" t="n" s="10">
         <v>89.8</v>
@@ -38734,22 +38734,22 @@
         <v>88.9</v>
       </c>
       <c r="DW95" t="n" s="10">
-        <v>88.3</v>
+        <v>88.2</v>
       </c>
       <c r="DX95" t="n" s="10">
         <v>95.9</v>
       </c>
       <c r="DY95" t="n" s="10">
-        <v>96.1</v>
+        <v>96.0</v>
       </c>
       <c r="DZ95" t="n" s="10">
-        <v>90.8</v>
+        <v>90.7</v>
       </c>
       <c r="EA95" t="n" s="10">
         <v>93.9</v>
       </c>
       <c r="EB95" t="n" s="10">
-        <v>88.3</v>
+        <v>88.2</v>
       </c>
       <c r="EC95" t="n" s="10">
         <v>88.1</v>
@@ -39503,7 +39503,7 @@
         <v>87.4</v>
       </c>
       <c r="DI97" t="n" s="10">
-        <v>90.8</v>
+        <v>90.7</v>
       </c>
       <c r="DJ97" t="n" s="10">
         <v>82.9</v>
@@ -39518,7 +39518,7 @@
         <v>71.3</v>
       </c>
       <c r="DN97" t="n" s="10">
-        <v>77.8</v>
+        <v>77.9</v>
       </c>
       <c r="DO97" t="n" s="10">
         <v>77.1</v>
@@ -39527,7 +39527,7 @@
         <v>77.2</v>
       </c>
       <c r="DQ97" t="n" s="10">
-        <v>74.5</v>
+        <v>74.6</v>
       </c>
       <c r="DR97" t="n" s="10">
         <v>73.3</v>
@@ -39539,13 +39539,13 @@
         <v>74.0</v>
       </c>
       <c r="DU97" t="n" s="10">
-        <v>70.7</v>
+        <v>70.8</v>
       </c>
       <c r="DV97" t="n" s="10">
         <v>74.8</v>
       </c>
       <c r="DW97" t="n" s="10">
-        <v>69.6</v>
+        <v>69.7</v>
       </c>
       <c r="DX97" t="n" s="10">
         <v>79.3</v>
@@ -39554,7 +39554,7 @@
         <v>80.4</v>
       </c>
       <c r="DZ97" t="n" s="10">
-        <v>74.4</v>
+        <v>74.5</v>
       </c>
       <c r="EA97" t="n" s="10">
         <v>74.6</v>
@@ -39569,7 +39569,7 @@
         <v>78.0</v>
       </c>
       <c r="EE97" t="n" s="10">
-        <v>74.2</v>
+        <v>74.3</v>
       </c>
     </row>
     <row r="98">
@@ -40359,7 +40359,7 @@
         <v>112.5</v>
       </c>
       <c r="DX99" t="n" s="10">
-        <v>118.1</v>
+        <v>118.0</v>
       </c>
       <c r="DY99" t="n" s="10">
         <v>116.6</v>
@@ -41130,13 +41130,13 @@
         <v>103.5</v>
       </c>
       <c r="DI102" t="n" s="10">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="DJ102" t="n" s="10">
         <v>102.0</v>
       </c>
       <c r="DK102" t="n" s="10">
-        <v>101.0</v>
+        <v>101.1</v>
       </c>
       <c r="DL102" t="n" s="10">
         <v>100.1</v>
@@ -41148,7 +41148,7 @@
         <v>98.6</v>
       </c>
       <c r="DO102" t="n" s="10">
-        <v>98.3</v>
+        <v>98.4</v>
       </c>
       <c r="DP102" t="n" s="10">
         <v>97.9</v>
@@ -41157,7 +41157,7 @@
         <v>97.5</v>
       </c>
       <c r="DR102" t="n" s="10">
-        <v>97.1</v>
+        <v>97.2</v>
       </c>
       <c r="DS102" t="n" s="10">
         <v>96.9</v>
@@ -41166,7 +41166,7 @@
         <v>96.6</v>
       </c>
       <c r="DU102" t="n" s="10">
-        <v>96.3</v>
+        <v>96.4</v>
       </c>
       <c r="DV102" t="n" s="10">
         <v>96.0</v>
@@ -41187,13 +41187,13 @@
         <v>94.5</v>
       </c>
       <c r="EB102" t="n" s="10">
-        <v>94.0</v>
+        <v>94.1</v>
       </c>
       <c r="EC102" t="n" s="10">
-        <v>93.4</v>
+        <v>93.5</v>
       </c>
       <c r="ED102" t="n" s="10">
-        <v>92.8</v>
+        <v>92.9</v>
       </c>
       <c r="EE102" t="n" s="10">
         <v>92.2</v>
@@ -41531,7 +41531,7 @@
         <v>132.1</v>
       </c>
       <c r="DH103" t="n" s="10">
-        <v>127.9</v>
+        <v>127.8</v>
       </c>
       <c r="DI103" t="n" s="10">
         <v>127.3</v>
@@ -42791,7 +42791,7 @@
         <v>90.9</v>
       </c>
       <c r="DV106" t="n" s="10">
-        <v>89.5</v>
+        <v>89.4</v>
       </c>
       <c r="DW106" t="n" s="10">
         <v>88.2</v>
@@ -42806,10 +42806,10 @@
         <v>84.5</v>
       </c>
       <c r="EA106" t="n" s="10">
-        <v>83.2</v>
+        <v>83.1</v>
       </c>
       <c r="EB106" t="n" s="10">
-        <v>81.9</v>
+        <v>81.8</v>
       </c>
       <c r="EC106" t="n" s="10">
         <v>80.3</v>
@@ -43153,76 +43153,76 @@
         <v>141.3</v>
       </c>
       <c r="DH107" t="n" s="10">
-        <v>135.6</v>
+        <v>132.5</v>
       </c>
       <c r="DI107" t="n" s="10">
-        <v>133.6</v>
+        <v>131.0</v>
       </c>
       <c r="DJ107" t="n" s="10">
-        <v>131.9</v>
+        <v>129.8</v>
       </c>
       <c r="DK107" t="n" s="10">
-        <v>130.2</v>
+        <v>128.5</v>
       </c>
       <c r="DL107" t="n" s="10">
-        <v>128.4</v>
+        <v>127.2</v>
       </c>
       <c r="DM107" t="n" s="10">
-        <v>126.5</v>
+        <v>125.8</v>
       </c>
       <c r="DN107" t="n" s="10">
-        <v>124.7</v>
+        <v>124.2</v>
       </c>
       <c r="DO107" t="n" s="10">
-        <v>122.5</v>
+        <v>122.3</v>
       </c>
       <c r="DP107" t="n" s="10">
-        <v>120.7</v>
+        <v>120.5</v>
       </c>
       <c r="DQ107" t="n" s="10">
-        <v>118.8</v>
+        <v>118.6</v>
       </c>
       <c r="DR107" t="n" s="10">
-        <v>117.1</v>
+        <v>116.8</v>
       </c>
       <c r="DS107" t="n" s="10">
-        <v>115.4</v>
+        <v>115.0</v>
       </c>
       <c r="DT107" t="n" s="10">
-        <v>113.6</v>
+        <v>113.1</v>
       </c>
       <c r="DU107" t="n" s="10">
-        <v>111.9</v>
+        <v>111.2</v>
       </c>
       <c r="DV107" t="n" s="10">
-        <v>110.3</v>
+        <v>109.4</v>
       </c>
       <c r="DW107" t="n" s="10">
-        <v>108.8</v>
+        <v>107.7</v>
       </c>
       <c r="DX107" t="n" s="10">
-        <v>107.6</v>
+        <v>106.1</v>
       </c>
       <c r="DY107" t="n" s="10">
-        <v>106.1</v>
+        <v>104.6</v>
       </c>
       <c r="DZ107" t="n" s="10">
-        <v>104.5</v>
+        <v>103.0</v>
       </c>
       <c r="EA107" t="n" s="10">
-        <v>102.9</v>
+        <v>101.6</v>
       </c>
       <c r="EB107" t="n" s="10">
-        <v>101.3</v>
+        <v>100.2</v>
       </c>
       <c r="EC107" t="n" s="10">
-        <v>99.4</v>
+        <v>98.5</v>
       </c>
       <c r="ED107" t="n" s="10">
-        <v>97.4</v>
+        <v>96.7</v>
       </c>
       <c r="EE107" t="n" s="10">
-        <v>95.8</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="108">
@@ -43581,13 +43581,13 @@
         <v>110.2</v>
       </c>
       <c r="DO108" t="n" s="10">
-        <v>110.2</v>
+        <v>110.1</v>
       </c>
       <c r="DP108" t="n" s="10">
         <v>110.2</v>
       </c>
       <c r="DQ108" t="n" s="10">
-        <v>110.4</v>
+        <v>110.3</v>
       </c>
       <c r="DR108" t="n" s="10">
         <v>110.5</v>
@@ -43617,13 +43617,13 @@
         <v>109.4</v>
       </c>
       <c r="EA108" t="n" s="10">
-        <v>108.3</v>
+        <v>108.2</v>
       </c>
       <c r="EB108" t="n" s="10">
         <v>107.0</v>
       </c>
       <c r="EC108" t="n" s="10">
-        <v>105.7</v>
+        <v>105.6</v>
       </c>
       <c r="ED108" t="n" s="10">
         <v>104.2</v>
@@ -44009,7 +44009,7 @@
         <v>139.3</v>
       </c>
       <c r="DW109" t="n" s="10">
-        <v>139.5</v>
+        <v>139.4</v>
       </c>
       <c r="DX109" t="n" s="10">
         <v>139.3</v>
@@ -44407,7 +44407,7 @@
         <v>111.9</v>
       </c>
       <c r="DT110" t="n" s="10">
-        <v>111.9</v>
+        <v>111.8</v>
       </c>
       <c r="DU110" t="n" s="10">
         <v>111.7</v>
@@ -46014,7 +46014,7 @@
         <v>89.2</v>
       </c>
       <c r="DO114" t="n" s="10">
-        <v>89.1</v>
+        <v>89.2</v>
       </c>
       <c r="DP114" t="n" s="10">
         <v>89.0</v>
@@ -46053,7 +46053,7 @@
         <v>89.9</v>
       </c>
       <c r="EB114" t="n" s="10">
-        <v>89.9</v>
+        <v>90.0</v>
       </c>
       <c r="EC114" t="n" s="10">
         <v>90.0</v>
@@ -46397,7 +46397,7 @@
         <v>120.8</v>
       </c>
       <c r="DH115" t="n" s="10">
-        <v>119.3</v>
+        <v>119.4</v>
       </c>
       <c r="DI115" t="n" s="10">
         <v>118.5</v>
@@ -46460,7 +46460,7 @@
         <v>114.3</v>
       </c>
       <c r="EC115" t="n" s="10">
-        <v>114.3</v>
+        <v>114.4</v>
       </c>
       <c r="ED115" t="n" s="10">
         <v>114.6</v>
@@ -46873,7 +46873,7 @@
         <v>85.8</v>
       </c>
       <c r="EE116" t="n" s="10">
-        <v>85.7</v>
+        <v>85.6</v>
       </c>
     </row>
     <row r="117">
@@ -47268,10 +47268,10 @@
         <v>110.3</v>
       </c>
       <c r="EB117" t="n" s="10">
-        <v>110.4</v>
+        <v>110.3</v>
       </c>
       <c r="EC117" t="n" s="10">
-        <v>110.2</v>
+        <v>110.1</v>
       </c>
       <c r="ED117" t="n" s="10">
         <v>110.1</v>
@@ -47621,7 +47621,7 @@
         <v>95.7</v>
       </c>
       <c r="DJ118" t="n" s="10">
-        <v>95.1</v>
+        <v>95.0</v>
       </c>
       <c r="DK118" t="n" s="10">
         <v>94.3</v>
@@ -47636,7 +47636,7 @@
         <v>92.5</v>
       </c>
       <c r="DO118" t="n" s="10">
-        <v>92.5</v>
+        <v>92.4</v>
       </c>
       <c r="DP118" t="n" s="10">
         <v>92.2</v>
@@ -48079,7 +48079,7 @@
         <v>116.5</v>
       </c>
       <c r="EB119" t="n" s="10">
-        <v>116.5</v>
+        <v>116.6</v>
       </c>
       <c r="EC119" t="n" s="10">
         <v>116.8</v>
@@ -49762,7 +49762,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:35:48&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:13:54&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/New orders (value and volume index) in the main construction industry - 1991.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/New orders (value and volume index) in the main construction industry - 1991.xlsx
@@ -175,7 +175,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:13:46</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 06:26:48</t>
   </si>
 </sst>
 </file>
@@ -32204,22 +32204,22 @@
         <v>103.4</v>
       </c>
       <c r="DI79" t="n" s="10">
-        <v>102.5</v>
+        <v>102.4</v>
       </c>
       <c r="DJ79" t="n" s="10">
         <v>105.0</v>
       </c>
       <c r="DK79" t="n" s="10">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="DL79" t="n" s="10">
-        <v>100.1</v>
+        <v>100.0</v>
       </c>
       <c r="DM79" t="n" s="10">
         <v>95.5</v>
       </c>
       <c r="DN79" t="n" s="10">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="DO79" t="n" s="10">
         <v>95.3</v>
@@ -32234,7 +32234,7 @@
         <v>96.4</v>
       </c>
       <c r="DS79" t="n" s="10">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="DT79" t="n" s="10">
         <v>96.9</v>
@@ -32243,10 +32243,10 @@
         <v>95.3</v>
       </c>
       <c r="DV79" t="n" s="10">
-        <v>91.4</v>
+        <v>91.3</v>
       </c>
       <c r="DW79" t="n" s="10">
-        <v>95.6</v>
+        <v>95.7</v>
       </c>
       <c r="DX79" t="n" s="10">
         <v>98.4</v>
@@ -32605,25 +32605,25 @@
         <v>129.4</v>
       </c>
       <c r="DH80" t="n" s="10">
-        <v>128.7</v>
+        <v>128.8</v>
       </c>
       <c r="DI80" t="n" s="10">
         <v>128.1</v>
       </c>
       <c r="DJ80" t="n" s="10">
-        <v>135.7</v>
+        <v>135.5</v>
       </c>
       <c r="DK80" t="n" s="10">
-        <v>126.0</v>
+        <v>126.2</v>
       </c>
       <c r="DL80" t="n" s="10">
-        <v>125.2</v>
+        <v>125.1</v>
       </c>
       <c r="DM80" t="n" s="10">
-        <v>119.1</v>
+        <v>119.2</v>
       </c>
       <c r="DN80" t="n" s="10">
-        <v>125.8</v>
+        <v>125.9</v>
       </c>
       <c r="DO80" t="n" s="10">
         <v>119.2</v>
@@ -32632,7 +32632,7 @@
         <v>125.2</v>
       </c>
       <c r="DQ80" t="n" s="10">
-        <v>123.0</v>
+        <v>123.1</v>
       </c>
       <c r="DR80" t="n" s="10">
         <v>120.7</v>
@@ -32644,19 +32644,19 @@
         <v>121.4</v>
       </c>
       <c r="DU80" t="n" s="10">
-        <v>119.4</v>
+        <v>119.5</v>
       </c>
       <c r="DV80" t="n" s="10">
-        <v>116.6</v>
+        <v>116.5</v>
       </c>
       <c r="DW80" t="n" s="10">
-        <v>119.7</v>
+        <v>119.8</v>
       </c>
       <c r="DX80" t="n" s="10">
-        <v>123.7</v>
+        <v>123.6</v>
       </c>
       <c r="DY80" t="n" s="10">
-        <v>124.4</v>
+        <v>124.5</v>
       </c>
       <c r="DZ80" t="n" s="10">
         <v>117.8</v>
@@ -32665,7 +32665,7 @@
         <v>122.2</v>
       </c>
       <c r="EB80" t="n" s="10">
-        <v>115.4</v>
+        <v>115.5</v>
       </c>
       <c r="EC80" t="n" s="10">
         <v>117.3</v>
@@ -32674,7 +32674,7 @@
         <v>117.2</v>
       </c>
       <c r="EE80" t="n" s="10">
-        <v>112.1</v>
+        <v>112.2</v>
       </c>
     </row>
     <row r="81">
@@ -33051,7 +33051,7 @@
         <v>106.0</v>
       </c>
       <c r="DU81" t="n" s="10">
-        <v>99.5</v>
+        <v>99.6</v>
       </c>
       <c r="DV81" t="n" s="10">
         <v>94.9</v>
@@ -33081,7 +33081,7 @@
         <v>95.2</v>
       </c>
       <c r="EE81" t="n" s="10">
-        <v>88.6</v>
+        <v>88.7</v>
       </c>
     </row>
     <row r="82">
@@ -33416,31 +33416,31 @@
         <v>134.6</v>
       </c>
       <c r="DH82" t="n" s="10">
-        <v>136.9</v>
+        <v>137.0</v>
       </c>
       <c r="DI82" t="n" s="10">
-        <v>138.0</v>
+        <v>137.9</v>
       </c>
       <c r="DJ82" t="n" s="10">
         <v>143.5</v>
       </c>
       <c r="DK82" t="n" s="10">
-        <v>135.1</v>
+        <v>135.2</v>
       </c>
       <c r="DL82" t="n" s="10">
-        <v>137.1</v>
+        <v>137.0</v>
       </c>
       <c r="DM82" t="n" s="10">
         <v>128.1</v>
       </c>
       <c r="DN82" t="n" s="10">
-        <v>134.8</v>
+        <v>134.9</v>
       </c>
       <c r="DO82" t="n" s="10">
         <v>125.9</v>
       </c>
       <c r="DP82" t="n" s="10">
-        <v>133.6</v>
+        <v>133.5</v>
       </c>
       <c r="DQ82" t="n" s="10">
         <v>129.3</v>
@@ -33461,7 +33461,7 @@
         <v>125.9</v>
       </c>
       <c r="DW82" t="n" s="10">
-        <v>127.5</v>
+        <v>127.6</v>
       </c>
       <c r="DX82" t="n" s="10">
         <v>127.6</v>
@@ -33473,19 +33473,19 @@
         <v>122.4</v>
       </c>
       <c r="EA82" t="n" s="10">
-        <v>126.0</v>
+        <v>125.9</v>
       </c>
       <c r="EB82" t="n" s="10">
-        <v>119.3</v>
+        <v>119.4</v>
       </c>
       <c r="EC82" t="n" s="10">
         <v>121.6</v>
       </c>
       <c r="ED82" t="n" s="10">
-        <v>118.7</v>
+        <v>118.6</v>
       </c>
       <c r="EE82" t="n" s="10">
-        <v>110.2</v>
+        <v>110.3</v>
       </c>
     </row>
     <row r="83">
@@ -33823,25 +33823,25 @@
         <v>114.5</v>
       </c>
       <c r="DH83" t="n" s="10">
+        <v>108.9</v>
+      </c>
+      <c r="DI83" t="n" s="10">
+        <v>107.2</v>
+      </c>
+      <c r="DJ83" t="n" s="10">
+        <v>114.9</v>
+      </c>
+      <c r="DK83" t="n" s="10">
         <v>108.7</v>
       </c>
-      <c r="DI83" t="n" s="10">
-        <v>107.3</v>
-      </c>
-      <c r="DJ83" t="n" s="10">
-        <v>115.0</v>
-      </c>
-      <c r="DK83" t="n" s="10">
-        <v>108.6</v>
-      </c>
       <c r="DL83" t="n" s="10">
-        <v>103.0</v>
+        <v>102.9</v>
       </c>
       <c r="DM83" t="n" s="10">
         <v>99.5</v>
       </c>
       <c r="DN83" t="n" s="10">
-        <v>105.7</v>
+        <v>105.8</v>
       </c>
       <c r="DO83" t="n" s="10">
         <v>100.3</v>
@@ -33850,7 +33850,7 @@
         <v>96.5</v>
       </c>
       <c r="DQ83" t="n" s="10">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="DR83" t="n" s="10">
         <v>95.2</v>
@@ -33862,28 +33862,28 @@
         <v>92.2</v>
       </c>
       <c r="DU83" t="n" s="10">
-        <v>90.0</v>
+        <v>90.1</v>
       </c>
       <c r="DV83" t="n" s="10">
         <v>88.2</v>
       </c>
       <c r="DW83" t="n" s="10">
-        <v>86.1</v>
+        <v>86.2</v>
       </c>
       <c r="DX83" t="n" s="10">
-        <v>89.0</v>
+        <v>88.9</v>
       </c>
       <c r="DY83" t="n" s="10">
-        <v>91.7</v>
+        <v>91.8</v>
       </c>
       <c r="DZ83" t="n" s="10">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="EA83" t="n" s="10">
-        <v>83.0</v>
+        <v>82.9</v>
       </c>
       <c r="EB83" t="n" s="10">
-        <v>83.4</v>
+        <v>83.5</v>
       </c>
       <c r="EC83" t="n" s="10">
         <v>81.0</v>
@@ -33892,7 +33892,7 @@
         <v>74.6</v>
       </c>
       <c r="EE83" t="n" s="10">
-        <v>73.4</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="84">
@@ -34227,76 +34227,76 @@
         <v>140.4</v>
       </c>
       <c r="DH84" t="n" s="10">
-        <v>131.2</v>
+        <v>131.6</v>
       </c>
       <c r="DI84" t="n" s="10">
-        <v>129.7</v>
+        <v>130.2</v>
       </c>
       <c r="DJ84" t="n" s="10">
-        <v>145.6</v>
+        <v>146.7</v>
       </c>
       <c r="DK84" t="n" s="10">
-        <v>131.2</v>
+        <v>131.7</v>
       </c>
       <c r="DL84" t="n" s="10">
-        <v>124.7</v>
+        <v>125.3</v>
       </c>
       <c r="DM84" t="n" s="10">
-        <v>127.1</v>
+        <v>120.9</v>
       </c>
       <c r="DN84" t="n" s="10">
-        <v>128.3</v>
+        <v>128.8</v>
       </c>
       <c r="DO84" t="n" s="10">
-        <v>122.3</v>
+        <v>122.8</v>
       </c>
       <c r="DP84" t="n" s="10">
-        <v>117.7</v>
+        <v>118.3</v>
       </c>
       <c r="DQ84" t="n" s="10">
-        <v>117.4</v>
+        <v>117.9</v>
       </c>
       <c r="DR84" t="n" s="10">
-        <v>116.5</v>
+        <v>117.0</v>
       </c>
       <c r="DS84" t="n" s="10">
-        <v>114.5</v>
+        <v>115.0</v>
       </c>
       <c r="DT84" t="n" s="10">
-        <v>112.7</v>
+        <v>113.2</v>
       </c>
       <c r="DU84" t="n" s="10">
-        <v>110.1</v>
+        <v>110.6</v>
       </c>
       <c r="DV84" t="n" s="10">
-        <v>110.9</v>
+        <v>111.7</v>
       </c>
       <c r="DW84" t="n" s="10">
-        <v>105.3</v>
+        <v>105.8</v>
       </c>
       <c r="DX84" t="n" s="10">
-        <v>108.9</v>
+        <v>109.5</v>
       </c>
       <c r="DY84" t="n" s="10">
-        <v>118.9</v>
+        <v>112.9</v>
       </c>
       <c r="DZ84" t="n" s="10">
-        <v>102.1</v>
+        <v>102.6</v>
       </c>
       <c r="EA84" t="n" s="10">
-        <v>101.9</v>
+        <v>102.5</v>
       </c>
       <c r="EB84" t="n" s="10">
-        <v>102.5</v>
+        <v>103.0</v>
       </c>
       <c r="EC84" t="n" s="10">
-        <v>99.8</v>
+        <v>100.3</v>
       </c>
       <c r="ED84" t="n" s="10">
-        <v>92.1</v>
+        <v>92.5</v>
       </c>
       <c r="EE84" t="n" s="10">
-        <v>90.5</v>
+        <v>90.9</v>
       </c>
     </row>
     <row r="85">
@@ -34643,7 +34643,7 @@
         <v>116.7</v>
       </c>
       <c r="DK85" t="n" s="10">
-        <v>109.7</v>
+        <v>109.8</v>
       </c>
       <c r="DL85" t="n" s="10">
         <v>115.8</v>
@@ -34667,7 +34667,7 @@
         <v>107.7</v>
       </c>
       <c r="DS85" t="n" s="10">
-        <v>114.9</v>
+        <v>114.8</v>
       </c>
       <c r="DT85" t="n" s="10">
         <v>114.6</v>
@@ -34682,7 +34682,7 @@
         <v>113.3</v>
       </c>
       <c r="DX85" t="n" s="10">
-        <v>111.2</v>
+        <v>111.1</v>
       </c>
       <c r="DY85" t="n" s="10">
         <v>113.0</v>
@@ -35041,13 +35041,13 @@
         <v>139.6</v>
       </c>
       <c r="DI86" t="n" s="10">
-        <v>142.8</v>
+        <v>142.7</v>
       </c>
       <c r="DJ86" t="n" s="10">
-        <v>145.8</v>
+        <v>145.7</v>
       </c>
       <c r="DK86" t="n" s="10">
-        <v>136.6</v>
+        <v>136.7</v>
       </c>
       <c r="DL86" t="n" s="10">
         <v>144.8</v>
@@ -35056,7 +35056,7 @@
         <v>132.6</v>
       </c>
       <c r="DN86" t="n" s="10">
-        <v>138.4</v>
+        <v>138.5</v>
       </c>
       <c r="DO86" t="n" s="10">
         <v>127.9</v>
@@ -35074,7 +35074,7 @@
         <v>144.1</v>
       </c>
       <c r="DT86" t="n" s="10">
-        <v>143.9</v>
+        <v>143.8</v>
       </c>
       <c r="DU86" t="n" s="10">
         <v>131.7</v>
@@ -35092,10 +35092,10 @@
         <v>142.1</v>
       </c>
       <c r="DZ86" t="n" s="10">
-        <v>135.8</v>
+        <v>135.9</v>
       </c>
       <c r="EA86" t="n" s="10">
-        <v>142.1</v>
+        <v>142.0</v>
       </c>
       <c r="EB86" t="n" s="10">
         <v>130.4</v>
@@ -35445,34 +35445,34 @@
         <v>100.9</v>
       </c>
       <c r="DH87" t="n" s="10">
+        <v>107.2</v>
+      </c>
+      <c r="DI87" t="n" s="10">
+        <v>113.7</v>
+      </c>
+      <c r="DJ87" t="n" s="10">
+        <v>114.6</v>
+      </c>
+      <c r="DK87" t="n" s="10">
         <v>107.1</v>
       </c>
-      <c r="DI87" t="n" s="10">
-        <v>113.8</v>
-      </c>
-      <c r="DJ87" t="n" s="10">
-        <v>114.7</v>
-      </c>
-      <c r="DK87" t="n" s="10">
-        <v>107.0</v>
-      </c>
       <c r="DL87" t="n" s="10">
-        <v>116.6</v>
+        <v>116.5</v>
       </c>
       <c r="DM87" t="n" s="10">
         <v>111.5</v>
       </c>
       <c r="DN87" t="n" s="10">
-        <v>112.1</v>
+        <v>112.3</v>
       </c>
       <c r="DO87" t="n" s="10">
         <v>100.7</v>
       </c>
       <c r="DP87" t="n" s="10">
-        <v>116.6</v>
+        <v>116.5</v>
       </c>
       <c r="DQ87" t="n" s="10">
-        <v>113.9</v>
+        <v>114.0</v>
       </c>
       <c r="DR87" t="n" s="10">
         <v>108.7</v>
@@ -35484,16 +35484,16 @@
         <v>117.3</v>
       </c>
       <c r="DU87" t="n" s="10">
-        <v>105.0</v>
+        <v>105.1</v>
       </c>
       <c r="DV87" t="n" s="10">
         <v>110.6</v>
       </c>
       <c r="DW87" t="n" s="10">
-        <v>116.3</v>
+        <v>116.4</v>
       </c>
       <c r="DX87" t="n" s="10">
-        <v>111.3</v>
+        <v>111.2</v>
       </c>
       <c r="DY87" t="n" s="10">
         <v>108.7</v>
@@ -35502,10 +35502,10 @@
         <v>108.0</v>
       </c>
       <c r="EA87" t="n" s="10">
-        <v>116.0</v>
+        <v>115.9</v>
       </c>
       <c r="EB87" t="n" s="10">
-        <v>103.9</v>
+        <v>104.0</v>
       </c>
       <c r="EC87" t="n" s="10">
         <v>103.8</v>
@@ -35514,7 +35514,7 @@
         <v>108.6</v>
       </c>
       <c r="EE87" t="n" s="10">
-        <v>99.5</v>
+        <v>99.6</v>
       </c>
     </row>
     <row r="88">
@@ -36256,13 +36256,13 @@
         <v>117.2</v>
       </c>
       <c r="DH89" t="n" s="10">
-        <v>123.8</v>
+        <v>123.9</v>
       </c>
       <c r="DI89" t="n" s="10">
         <v>109.3</v>
       </c>
       <c r="DJ89" t="n" s="10">
-        <v>115.5</v>
+        <v>115.4</v>
       </c>
       <c r="DK89" t="n" s="10">
         <v>113.8</v>
@@ -36274,7 +36274,7 @@
         <v>104.8</v>
       </c>
       <c r="DN89" t="n" s="10">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="DO89" t="n" s="10">
         <v>103.4</v>
@@ -36283,7 +36283,7 @@
         <v>105.3</v>
       </c>
       <c r="DQ89" t="n" s="10">
-        <v>105.9</v>
+        <v>106.0</v>
       </c>
       <c r="DR89" t="n" s="10">
         <v>99.5</v>
@@ -36295,7 +36295,7 @@
         <v>99.7</v>
       </c>
       <c r="DU89" t="n" s="10">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="DV89" t="n" s="10">
         <v>94.1</v>
@@ -36325,7 +36325,7 @@
         <v>103.0</v>
       </c>
       <c r="EE89" t="n" s="10">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="90">
@@ -37067,10 +37067,10 @@
         <v>95.3</v>
       </c>
       <c r="DH91" t="n" s="10">
-        <v>95.3</v>
+        <v>95.2</v>
       </c>
       <c r="DI91" t="n" s="10">
-        <v>92.0</v>
+        <v>92.1</v>
       </c>
       <c r="DJ91" t="n" s="10">
         <v>94.8</v>
@@ -37085,10 +37085,10 @@
         <v>86.1</v>
       </c>
       <c r="DN91" t="n" s="10">
-        <v>91.6</v>
+        <v>91.5</v>
       </c>
       <c r="DO91" t="n" s="10">
-        <v>87.7</v>
+        <v>87.6</v>
       </c>
       <c r="DP91" t="n" s="10">
         <v>90.4</v>
@@ -37100,7 +37100,7 @@
         <v>88.3</v>
       </c>
       <c r="DS91" t="n" s="10">
-        <v>91.6</v>
+        <v>91.7</v>
       </c>
       <c r="DT91" t="n" s="10">
         <v>86.2</v>
@@ -37127,7 +37127,7 @@
         <v>92.1</v>
       </c>
       <c r="EB91" t="n" s="10">
-        <v>87.0</v>
+        <v>86.9</v>
       </c>
       <c r="EC91" t="n" s="10">
         <v>87.5</v>
@@ -37471,10 +37471,10 @@
         <v>122.4</v>
       </c>
       <c r="DH92" t="n" s="10">
-        <v>121.1</v>
+        <v>121.2</v>
       </c>
       <c r="DI92" t="n" s="10">
-        <v>117.7</v>
+        <v>117.6</v>
       </c>
       <c r="DJ92" t="n" s="10">
         <v>121.4</v>
@@ -37489,7 +37489,7 @@
         <v>109.6</v>
       </c>
       <c r="DN92" t="n" s="10">
-        <v>116.0</v>
+        <v>116.1</v>
       </c>
       <c r="DO92" t="n" s="10">
         <v>111.3</v>
@@ -37498,13 +37498,13 @@
         <v>115.0</v>
       </c>
       <c r="DQ92" t="n" s="10">
-        <v>115.3</v>
+        <v>115.4</v>
       </c>
       <c r="DR92" t="n" s="10">
         <v>111.8</v>
       </c>
       <c r="DS92" t="n" s="10">
-        <v>116.4</v>
+        <v>116.3</v>
       </c>
       <c r="DT92" t="n" s="10">
         <v>109.4</v>
@@ -37878,25 +37878,25 @@
         <v>86.8</v>
       </c>
       <c r="DH93" t="n" s="10">
-        <v>90.7</v>
+        <v>90.8</v>
       </c>
       <c r="DI93" t="n" s="10">
-        <v>87.3</v>
+        <v>87.2</v>
       </c>
       <c r="DJ93" t="n" s="10">
-        <v>90.3</v>
+        <v>90.2</v>
       </c>
       <c r="DK93" t="n" s="10">
-        <v>85.9</v>
+        <v>86.0</v>
       </c>
       <c r="DL93" t="n" s="10">
-        <v>79.7</v>
+        <v>79.6</v>
       </c>
       <c r="DM93" t="n" s="10">
         <v>81.9</v>
       </c>
       <c r="DN93" t="n" s="10">
-        <v>87.4</v>
+        <v>87.5</v>
       </c>
       <c r="DO93" t="n" s="10">
         <v>81.4</v>
@@ -37905,7 +37905,7 @@
         <v>85.3</v>
       </c>
       <c r="DQ93" t="n" s="10">
-        <v>82.4</v>
+        <v>82.5</v>
       </c>
       <c r="DR93" t="n" s="10">
         <v>84.7</v>
@@ -37917,37 +37917,37 @@
         <v>79.9</v>
       </c>
       <c r="DU93" t="n" s="10">
-        <v>81.4</v>
+        <v>81.5</v>
       </c>
       <c r="DV93" t="n" s="10">
-        <v>84.5</v>
+        <v>84.4</v>
       </c>
       <c r="DW93" t="n" s="10">
-        <v>86.0</v>
+        <v>86.1</v>
       </c>
       <c r="DX93" t="n" s="10">
         <v>89.5</v>
       </c>
       <c r="DY93" t="n" s="10">
-        <v>87.1</v>
+        <v>87.2</v>
       </c>
       <c r="DZ93" t="n" s="10">
         <v>84.6</v>
       </c>
       <c r="EA93" t="n" s="10">
-        <v>88.8</v>
+        <v>88.7</v>
       </c>
       <c r="EB93" t="n" s="10">
-        <v>84.6</v>
+        <v>84.7</v>
       </c>
       <c r="EC93" t="n" s="10">
-        <v>86.4</v>
+        <v>86.3</v>
       </c>
       <c r="ED93" t="n" s="10">
         <v>82.6</v>
       </c>
       <c r="EE93" t="n" s="10">
-        <v>83.5</v>
+        <v>83.6</v>
       </c>
     </row>
     <row r="94">
@@ -38282,16 +38282,16 @@
         <v>114.3</v>
       </c>
       <c r="DH94" t="n" s="10">
-        <v>117.8</v>
+        <v>117.9</v>
       </c>
       <c r="DI94" t="n" s="10">
-        <v>113.8</v>
+        <v>113.7</v>
       </c>
       <c r="DJ94" t="n" s="10">
         <v>118.1</v>
       </c>
       <c r="DK94" t="n" s="10">
-        <v>111.7</v>
+        <v>111.8</v>
       </c>
       <c r="DL94" t="n" s="10">
         <v>103.7</v>
@@ -38300,7 +38300,7 @@
         <v>106.3</v>
       </c>
       <c r="DN94" t="n" s="10">
-        <v>113.1</v>
+        <v>113.2</v>
       </c>
       <c r="DO94" t="n" s="10">
         <v>105.0</v>
@@ -38327,10 +38327,10 @@
         <v>108.2</v>
       </c>
       <c r="DW94" t="n" s="10">
-        <v>109.9</v>
+        <v>110.0</v>
       </c>
       <c r="DX94" t="n" s="10">
-        <v>115.0</v>
+        <v>114.9</v>
       </c>
       <c r="DY94" t="n" s="10">
         <v>111.7</v>
@@ -38342,10 +38342,10 @@
         <v>114.0</v>
       </c>
       <c r="EB94" t="n" s="10">
-        <v>108.3</v>
+        <v>108.4</v>
       </c>
       <c r="EC94" t="n" s="10">
-        <v>110.9</v>
+        <v>110.8</v>
       </c>
       <c r="ED94" t="n" s="10">
         <v>106.3</v>
@@ -38722,7 +38722,7 @@
         <v>90.4</v>
       </c>
       <c r="DS95" t="n" s="10">
-        <v>92.9</v>
+        <v>92.8</v>
       </c>
       <c r="DT95" t="n" s="10">
         <v>89.8</v>
@@ -39099,7 +39099,7 @@
         <v>119.7</v>
       </c>
       <c r="DJ96" t="n" s="10">
-        <v>123.1</v>
+        <v>123.0</v>
       </c>
       <c r="DK96" t="n" s="10">
         <v>120.2</v>
@@ -39120,7 +39120,7 @@
         <v>117.7</v>
       </c>
       <c r="DQ96" t="n" s="10">
-        <v>120.7</v>
+        <v>120.8</v>
       </c>
       <c r="DR96" t="n" s="10">
         <v>113.7</v>
@@ -39138,7 +39138,7 @@
         <v>112.1</v>
       </c>
       <c r="DW96" t="n" s="10">
-        <v>111.0</v>
+        <v>111.1</v>
       </c>
       <c r="DX96" t="n" s="10">
         <v>121.2</v>
@@ -39506,10 +39506,10 @@
         <v>90.7</v>
       </c>
       <c r="DJ97" t="n" s="10">
-        <v>82.9</v>
+        <v>82.8</v>
       </c>
       <c r="DK97" t="n" s="10">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="DL97" t="n" s="10">
         <v>75.5</v>
@@ -39548,7 +39548,7 @@
         <v>69.7</v>
       </c>
       <c r="DX97" t="n" s="10">
-        <v>79.3</v>
+        <v>79.2</v>
       </c>
       <c r="DY97" t="n" s="10">
         <v>80.4</v>
@@ -39560,7 +39560,7 @@
         <v>74.6</v>
       </c>
       <c r="EB97" t="n" s="10">
-        <v>74.5</v>
+        <v>74.6</v>
       </c>
       <c r="EC97" t="n" s="10">
         <v>74.8</v>
@@ -40311,19 +40311,19 @@
         <v>121.8</v>
       </c>
       <c r="DH99" t="n" s="10">
-        <v>110.9</v>
+        <v>110.8</v>
       </c>
       <c r="DI99" t="n" s="10">
         <v>100.4</v>
       </c>
       <c r="DJ99" t="n" s="10">
-        <v>116.9</v>
+        <v>117.0</v>
       </c>
       <c r="DK99" t="n" s="10">
-        <v>116.6</v>
+        <v>116.5</v>
       </c>
       <c r="DL99" t="n" s="10">
-        <v>115.3</v>
+        <v>115.4</v>
       </c>
       <c r="DM99" t="n" s="10">
         <v>111.2</v>
@@ -40338,7 +40338,7 @@
         <v>114.9</v>
       </c>
       <c r="DQ99" t="n" s="10">
-        <v>124.2</v>
+        <v>124.1</v>
       </c>
       <c r="DR99" t="n" s="10">
         <v>113.0</v>
@@ -40350,16 +40350,16 @@
         <v>110.8</v>
       </c>
       <c r="DU99" t="n" s="10">
-        <v>127.9</v>
+        <v>127.8</v>
       </c>
       <c r="DV99" t="n" s="10">
-        <v>107.6</v>
+        <v>107.7</v>
       </c>
       <c r="DW99" t="n" s="10">
         <v>112.5</v>
       </c>
       <c r="DX99" t="n" s="10">
-        <v>118.0</v>
+        <v>118.1</v>
       </c>
       <c r="DY99" t="n" s="10">
         <v>116.6</v>
@@ -40380,7 +40380,7 @@
         <v>115.0</v>
       </c>
       <c r="EE99" t="n" s="10">
-        <v>116.0</v>
+        <v>115.9</v>
       </c>
     </row>
     <row r="100">
@@ -41181,10 +41181,10 @@
         <v>95.4</v>
       </c>
       <c r="DZ102" t="n" s="10">
-        <v>95.0</v>
+        <v>95.1</v>
       </c>
       <c r="EA102" t="n" s="10">
-        <v>94.5</v>
+        <v>94.6</v>
       </c>
       <c r="EB102" t="n" s="10">
         <v>94.1</v>
@@ -41196,7 +41196,7 @@
         <v>92.9</v>
       </c>
       <c r="EE102" t="n" s="10">
-        <v>92.2</v>
+        <v>92.3</v>
       </c>
     </row>
     <row r="103">
@@ -41531,16 +41531,16 @@
         <v>132.1</v>
       </c>
       <c r="DH103" t="n" s="10">
-        <v>127.8</v>
+        <v>127.9</v>
       </c>
       <c r="DI103" t="n" s="10">
-        <v>127.3</v>
+        <v>127.4</v>
       </c>
       <c r="DJ103" t="n" s="10">
-        <v>126.4</v>
+        <v>126.5</v>
       </c>
       <c r="DK103" t="n" s="10">
-        <v>125.3</v>
+        <v>125.4</v>
       </c>
       <c r="DL103" t="n" s="10">
         <v>124.3</v>
@@ -41564,7 +41564,7 @@
         <v>121.8</v>
       </c>
       <c r="DS103" t="n" s="10">
-        <v>121.5</v>
+        <v>121.6</v>
       </c>
       <c r="DT103" t="n" s="10">
         <v>121.3</v>
@@ -41576,13 +41576,13 @@
         <v>120.8</v>
       </c>
       <c r="DW103" t="n" s="10">
-        <v>120.5</v>
+        <v>120.6</v>
       </c>
       <c r="DX103" t="n" s="10">
-        <v>120.3</v>
+        <v>120.4</v>
       </c>
       <c r="DY103" t="n" s="10">
-        <v>120.0</v>
+        <v>120.1</v>
       </c>
       <c r="DZ103" t="n" s="10">
         <v>119.7</v>
@@ -41591,13 +41591,13 @@
         <v>119.1</v>
       </c>
       <c r="EB103" t="n" s="10">
-        <v>118.5</v>
+        <v>118.6</v>
       </c>
       <c r="EC103" t="n" s="10">
         <v>117.9</v>
       </c>
       <c r="ED103" t="n" s="10">
-        <v>117.2</v>
+        <v>117.3</v>
       </c>
       <c r="EE103" t="n" s="10">
         <v>116.5</v>
@@ -41962,7 +41962,7 @@
         <v>106.3</v>
       </c>
       <c r="DP104" t="n" s="10">
-        <v>105.5</v>
+        <v>105.6</v>
       </c>
       <c r="DQ104" t="n" s="10">
         <v>104.9</v>
@@ -42393,7 +42393,7 @@
         <v>126.3</v>
       </c>
       <c r="DY105" t="n" s="10">
-        <v>125.3</v>
+        <v>125.4</v>
       </c>
       <c r="DZ105" t="n" s="10">
         <v>124.2</v>
@@ -42791,7 +42791,7 @@
         <v>90.9</v>
       </c>
       <c r="DV106" t="n" s="10">
-        <v>89.4</v>
+        <v>89.5</v>
       </c>
       <c r="DW106" t="n" s="10">
         <v>88.2</v>
@@ -42806,10 +42806,10 @@
         <v>84.5</v>
       </c>
       <c r="EA106" t="n" s="10">
-        <v>83.1</v>
+        <v>83.2</v>
       </c>
       <c r="EB106" t="n" s="10">
-        <v>81.8</v>
+        <v>81.9</v>
       </c>
       <c r="EC106" t="n" s="10">
         <v>80.3</v>
@@ -42818,7 +42818,7 @@
         <v>78.6</v>
       </c>
       <c r="EE106" t="n" s="10">
-        <v>77.2</v>
+        <v>77.3</v>
       </c>
     </row>
     <row r="107">
@@ -43159,70 +43159,70 @@
         <v>131.0</v>
       </c>
       <c r="DJ107" t="n" s="10">
-        <v>129.8</v>
+        <v>129.5</v>
       </c>
       <c r="DK107" t="n" s="10">
-        <v>128.5</v>
+        <v>128.1</v>
       </c>
       <c r="DL107" t="n" s="10">
-        <v>127.2</v>
+        <v>126.6</v>
       </c>
       <c r="DM107" t="n" s="10">
-        <v>125.8</v>
+        <v>125.0</v>
       </c>
       <c r="DN107" t="n" s="10">
-        <v>124.2</v>
+        <v>123.6</v>
       </c>
       <c r="DO107" t="n" s="10">
-        <v>122.3</v>
+        <v>121.9</v>
       </c>
       <c r="DP107" t="n" s="10">
-        <v>120.5</v>
+        <v>120.3</v>
       </c>
       <c r="DQ107" t="n" s="10">
-        <v>118.6</v>
+        <v>118.7</v>
       </c>
       <c r="DR107" t="n" s="10">
-        <v>116.8</v>
+        <v>117.1</v>
       </c>
       <c r="DS107" t="n" s="10">
-        <v>115.0</v>
+        <v>115.5</v>
       </c>
       <c r="DT107" t="n" s="10">
-        <v>113.1</v>
+        <v>113.8</v>
       </c>
       <c r="DU107" t="n" s="10">
-        <v>111.2</v>
+        <v>112.2</v>
       </c>
       <c r="DV107" t="n" s="10">
-        <v>109.4</v>
+        <v>110.5</v>
       </c>
       <c r="DW107" t="n" s="10">
-        <v>107.7</v>
+        <v>109.0</v>
       </c>
       <c r="DX107" t="n" s="10">
+        <v>107.6</v>
+      </c>
+      <c r="DY107" t="n" s="10">
         <v>106.1</v>
       </c>
-      <c r="DY107" t="n" s="10">
-        <v>104.6</v>
-      </c>
       <c r="DZ107" t="n" s="10">
-        <v>103.0</v>
+        <v>104.5</v>
       </c>
       <c r="EA107" t="n" s="10">
-        <v>101.6</v>
+        <v>102.8</v>
       </c>
       <c r="EB107" t="n" s="10">
-        <v>100.2</v>
+        <v>101.3</v>
       </c>
       <c r="EC107" t="n" s="10">
-        <v>98.5</v>
+        <v>99.4</v>
       </c>
       <c r="ED107" t="n" s="10">
-        <v>96.7</v>
+        <v>97.4</v>
       </c>
       <c r="EE107" t="n" s="10">
-        <v>95.2</v>
+        <v>95.7</v>
       </c>
     </row>
     <row r="108">
@@ -43581,7 +43581,7 @@
         <v>110.2</v>
       </c>
       <c r="DO108" t="n" s="10">
-        <v>110.1</v>
+        <v>110.2</v>
       </c>
       <c r="DP108" t="n" s="10">
         <v>110.2</v>
@@ -43617,13 +43617,13 @@
         <v>109.4</v>
       </c>
       <c r="EA108" t="n" s="10">
-        <v>108.2</v>
+        <v>108.3</v>
       </c>
       <c r="EB108" t="n" s="10">
         <v>107.0</v>
       </c>
       <c r="EC108" t="n" s="10">
-        <v>105.6</v>
+        <v>105.7</v>
       </c>
       <c r="ED108" t="n" s="10">
         <v>104.2</v>
@@ -44009,7 +44009,7 @@
         <v>139.3</v>
       </c>
       <c r="DW109" t="n" s="10">
-        <v>139.4</v>
+        <v>139.5</v>
       </c>
       <c r="DX109" t="n" s="10">
         <v>139.3</v>
@@ -44024,7 +44024,7 @@
         <v>136.4</v>
       </c>
       <c r="EB109" t="n" s="10">
-        <v>134.9</v>
+        <v>135.0</v>
       </c>
       <c r="EC109" t="n" s="10">
         <v>133.3</v>
@@ -44398,7 +44398,7 @@
         <v>111.6</v>
       </c>
       <c r="DQ110" t="n" s="10">
-        <v>111.7</v>
+        <v>111.8</v>
       </c>
       <c r="DR110" t="n" s="10">
         <v>111.8</v>
@@ -44407,16 +44407,16 @@
         <v>111.9</v>
       </c>
       <c r="DT110" t="n" s="10">
-        <v>111.8</v>
+        <v>111.9</v>
       </c>
       <c r="DU110" t="n" s="10">
         <v>111.7</v>
       </c>
       <c r="DV110" t="n" s="10">
+        <v>111.6</v>
+      </c>
+      <c r="DW110" t="n" s="10">
         <v>111.5</v>
-      </c>
-      <c r="DW110" t="n" s="10">
-        <v>111.4</v>
       </c>
       <c r="DX110" t="n" s="10">
         <v>111.0</v>
@@ -44431,7 +44431,7 @@
         <v>108.3</v>
       </c>
       <c r="EB110" t="n" s="10">
-        <v>106.8</v>
+        <v>106.9</v>
       </c>
       <c r="EC110" t="n" s="10">
         <v>105.3</v>
@@ -45185,10 +45185,10 @@
         <v>117.0</v>
       </c>
       <c r="DI112" t="n" s="10">
-        <v>115.1</v>
+        <v>115.2</v>
       </c>
       <c r="DJ112" t="n" s="10">
-        <v>113.0</v>
+        <v>113.1</v>
       </c>
       <c r="DK112" t="n" s="10">
         <v>110.6</v>
@@ -45236,7 +45236,7 @@
         <v>100.2</v>
       </c>
       <c r="DZ112" t="n" s="10">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="EA112" t="n" s="10">
         <v>100.6</v>
@@ -46014,7 +46014,7 @@
         <v>89.2</v>
       </c>
       <c r="DO114" t="n" s="10">
-        <v>89.2</v>
+        <v>89.1</v>
       </c>
       <c r="DP114" t="n" s="10">
         <v>89.0</v>
@@ -46409,7 +46409,7 @@
         <v>116.2</v>
       </c>
       <c r="DL115" t="n" s="10">
-        <v>115.0</v>
+        <v>115.1</v>
       </c>
       <c r="DM115" t="n" s="10">
         <v>114.0</v>
@@ -46852,7 +46852,7 @@
         <v>85.3</v>
       </c>
       <c r="DX116" t="n" s="10">
-        <v>85.6</v>
+        <v>85.7</v>
       </c>
       <c r="DY116" t="n" s="10">
         <v>85.8</v>
@@ -46864,7 +46864,7 @@
         <v>86.0</v>
       </c>
       <c r="EB116" t="n" s="10">
-        <v>86.0</v>
+        <v>86.1</v>
       </c>
       <c r="EC116" t="n" s="10">
         <v>85.9</v>
@@ -46873,7 +46873,7 @@
         <v>85.8</v>
       </c>
       <c r="EE116" t="n" s="10">
-        <v>85.6</v>
+        <v>85.7</v>
       </c>
     </row>
     <row r="117">
@@ -47229,7 +47229,7 @@
         <v>108.0</v>
       </c>
       <c r="DO117" t="n" s="10">
-        <v>107.7</v>
+        <v>107.8</v>
       </c>
       <c r="DP117" t="n" s="10">
         <v>107.6</v>
@@ -47244,7 +47244,7 @@
         <v>107.8</v>
       </c>
       <c r="DT117" t="n" s="10">
-        <v>108.0</v>
+        <v>108.1</v>
       </c>
       <c r="DU117" t="n" s="10">
         <v>108.5</v>
@@ -47262,16 +47262,16 @@
         <v>110.0</v>
       </c>
       <c r="DZ117" t="n" s="10">
-        <v>110.1</v>
+        <v>110.2</v>
       </c>
       <c r="EA117" t="n" s="10">
         <v>110.3</v>
       </c>
       <c r="EB117" t="n" s="10">
-        <v>110.3</v>
+        <v>110.4</v>
       </c>
       <c r="EC117" t="n" s="10">
-        <v>110.1</v>
+        <v>110.2</v>
       </c>
       <c r="ED117" t="n" s="10">
         <v>110.1</v>
@@ -47621,7 +47621,7 @@
         <v>95.7</v>
       </c>
       <c r="DJ118" t="n" s="10">
-        <v>95.0</v>
+        <v>95.1</v>
       </c>
       <c r="DK118" t="n" s="10">
         <v>94.3</v>
@@ -47636,7 +47636,7 @@
         <v>92.5</v>
       </c>
       <c r="DO118" t="n" s="10">
-        <v>92.4</v>
+        <v>92.5</v>
       </c>
       <c r="DP118" t="n" s="10">
         <v>92.2</v>
@@ -49264,7 +49264,7 @@
         <v>115.1</v>
       </c>
       <c r="DQ122" t="n" s="10">
-        <v>115.4</v>
+        <v>115.3</v>
       </c>
       <c r="DR122" t="n" s="10">
         <v>115.5</v>
@@ -49279,13 +49279,13 @@
         <v>115.2</v>
       </c>
       <c r="DV122" t="n" s="10">
-        <v>115.0</v>
+        <v>114.9</v>
       </c>
       <c r="DW122" t="n" s="10">
         <v>114.8</v>
       </c>
       <c r="DX122" t="n" s="10">
-        <v>114.8</v>
+        <v>114.7</v>
       </c>
       <c r="DY122" t="n" s="10">
         <v>114.5</v>
@@ -49294,7 +49294,7 @@
         <v>114.2</v>
       </c>
       <c r="EA122" t="n" s="10">
-        <v>113.5</v>
+        <v>113.4</v>
       </c>
       <c r="EB122" t="n" s="10">
         <v>112.7</v>
@@ -49762,7 +49762,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:13:54&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 06:26:55&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>